--- a/2021/vysledky2021.xlsx
+++ b/2021/vysledky2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="485">
   <si>
     <t xml:space="preserve">Valašskokarpatská cyklotour 2021</t>
   </si>
@@ -246,10 +246,10 @@
     <t xml:space="preserve">Frenštát pod Radhoštěm</t>
   </si>
   <si>
-    <t xml:space="preserve">Ester Schenkova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hubert Jelinek</t>
+    <t xml:space="preserve">Ester Schenková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubert Jelínek</t>
   </si>
   <si>
     <t xml:space="preserve">Zlín</t>
@@ -321,7 +321,7 @@
     <t xml:space="preserve">Radovan Chuchma</t>
   </si>
   <si>
-    <t xml:space="preserve">Lukáš F. Bodný</t>
+    <t xml:space="preserve">Lukáš František Bodný</t>
   </si>
   <si>
     <t xml:space="preserve">Martin Jurča</t>
@@ -390,7 +390,7 @@
     <t xml:space="preserve">Julie Holbová</t>
   </si>
   <si>
-    <t xml:space="preserve">Julie Zvoničková</t>
+    <t xml:space="preserve">Julie Zvoníčková</t>
   </si>
   <si>
     <t xml:space="preserve">Adam Majzlík</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">DAXO</t>
   </si>
   <si>
-    <t xml:space="preserve">Beáta Machačová</t>
+    <t xml:space="preserve">Beáta Macháčová</t>
   </si>
   <si>
     <t xml:space="preserve">Cyklo-Machač, V.Polanka</t>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">Laura Janečková</t>
   </si>
   <si>
-    <t xml:space="preserve">Marie Křeková</t>
+    <t xml:space="preserve">Marie Křenková</t>
   </si>
   <si>
     <t xml:space="preserve">Marie Častulíková</t>
@@ -588,7 +588,7 @@
     <t xml:space="preserve">Vítek Macůrek</t>
   </si>
   <si>
-    <t xml:space="preserve">Ondřej Matůšů</t>
+    <t xml:space="preserve">Ondřej Matušů</t>
   </si>
   <si>
     <t xml:space="preserve">SK Edie team Vsetín</t>
@@ -894,7 +894,7 @@
     <t xml:space="preserve">CYKLOCHTEAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Martin Grbeníček</t>
+    <t xml:space="preserve">Martin Grebeníček</t>
   </si>
   <si>
     <t xml:space="preserve">Marcel Morvay</t>
@@ -1170,7 +1170,7 @@
     <t xml:space="preserve">Bohunice</t>
   </si>
   <si>
-    <t xml:space="preserve">Adam Špánek</t>
+    <t xml:space="preserve">Adam Šánek</t>
   </si>
   <si>
     <t xml:space="preserve">Pavel Machac</t>
@@ -1356,9 +1356,6 @@
     <t xml:space="preserve">Kolo-běžky Brumov-Bylnice</t>
   </si>
   <si>
-    <t xml:space="preserve">Martin Grebeníček</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jaroslav Zvonek</t>
   </si>
   <si>
@@ -1452,7 +1449,7 @@
     <t xml:space="preserve">sportservis TEAM Ba</t>
   </si>
   <si>
-    <t xml:space="preserve">Peter Solín</t>
+    <t xml:space="preserve">Peter Solin</t>
   </si>
   <si>
     <t xml:space="preserve">Radovan Plšek</t>
@@ -1883,10 +1880,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -4025,10 +4022,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -4780,7 +4777,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -5054,7 +5051,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -5960,7 +5957,7 @@
   </sheetPr>
   <dimension ref="B2:S12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -5968,7 +5965,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -6364,7 +6361,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -6864,15 +6861,15 @@
   </sheetPr>
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -8441,10 +8438,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -9154,7 +9151,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="20" t="s">
-        <v>433</v>
+        <v>279</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>57</v>
@@ -9188,7 +9185,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>19</v>
@@ -9230,7 +9227,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>297</v>
@@ -9272,7 +9269,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>342</v>
@@ -9283,7 +9280,7 @@
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
       <c r="G23" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H23" s="24" t="n">
         <v>15</v>
@@ -9314,10 +9311,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>438</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>439</v>
       </c>
       <c r="D24" s="22" t="n">
         <v>1972</v>
@@ -9325,7 +9322,7 @@
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
       <c r="G24" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H24" s="24" t="n">
         <v>10</v>
@@ -9356,10 +9353,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>441</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>442</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>1980</v>
@@ -9367,7 +9364,7 @@
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
       <c r="G25" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H25" s="24" t="n">
         <v>9</v>
@@ -9409,7 +9406,7 @@
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
       <c r="G26" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H26" s="24" t="n">
         <v>7</v>
@@ -9440,7 +9437,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>328</v>
@@ -9482,10 +9479,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>446</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>447</v>
       </c>
       <c r="D28" s="22" t="n">
         <v>1977</v>
@@ -9493,7 +9490,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
       <c r="G28" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H28" s="24" t="n">
         <v>0</v>
@@ -9524,7 +9521,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>52</v>
@@ -9535,7 +9532,7 @@
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
       <c r="G29" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H29" s="24" t="n">
         <v>0</v>
@@ -9566,7 +9563,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>35</v>
@@ -9577,7 +9574,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
       <c r="G30" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H30" s="24" t="n">
         <v>0</v>
@@ -9608,7 +9605,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>81</v>
@@ -9675,10 +9672,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -9701,7 +9698,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9802,7 +9799,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>331</v>
@@ -9817,7 +9814,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H7" s="24" t="n">
         <v>11</v>
@@ -9856,7 +9853,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>16</v>
@@ -9906,10 +9903,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>458</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>459</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>1969</v>
@@ -9956,10 +9953,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>460</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>461</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>1971</v>
@@ -10002,7 +9999,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22" t="n">
@@ -10054,10 +10051,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>464</v>
       </c>
       <c r="D12" s="22" t="n">
         <v>1967</v>
@@ -10138,7 +10135,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>390</v>
@@ -10172,10 +10169,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>466</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>467</v>
       </c>
       <c r="D15" s="22" t="n">
         <v>1971</v>
@@ -10214,10 +10211,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>468</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="D16" s="22" t="n">
         <v>1971</v>
@@ -10248,7 +10245,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="n">
@@ -10288,10 +10285,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>471</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>472</v>
       </c>
       <c r="D18" s="22" t="n">
         <v>1968</v>
@@ -10330,10 +10327,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>473</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>474</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>1961</v>
@@ -10372,7 +10369,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="22" t="n">
@@ -10385,7 +10382,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H20" s="24" t="n">
         <v>0</v>
@@ -10416,7 +10413,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>52</v>
@@ -10427,7 +10424,7 @@
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H21" s="24" t="n">
         <v>1</v>
@@ -10458,7 +10455,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>52</v>
@@ -10469,7 +10466,7 @@
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H22" s="24" t="n">
         <v>0</v>
@@ -10500,10 +10497,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>482</v>
       </c>
       <c r="D23" s="22" t="n">
         <v>1949</v>
@@ -10511,7 +10508,7 @@
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
       <c r="G23" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H23" s="24" t="n">
         <v>0</v>
@@ -10542,7 +10539,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>52</v>
@@ -10553,7 +10550,7 @@
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
       <c r="G24" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H24" s="24" t="n">
         <v>0</v>
@@ -10609,10 +10606,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -12429,10 +12426,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -12948,7 +12945,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -13665,14 +13662,14 @@
   <dimension ref="B2:S34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -14993,10 +14990,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -15880,7 +15877,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -16374,7 +16371,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
@@ -16824,7 +16821,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
